--- a/script/测试用例 热.xlsx
+++ b/script/测试用例 热.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="21600" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
   <si>
     <t>模式</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>费用小计</t>
+  </si>
+  <si>
+    <t>调度次数</t>
+  </si>
+  <si>
+    <t>生成详单个数</t>
   </si>
 </sst>
 </file>
@@ -1562,18 +1568,18 @@
   <sheetPr/>
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
+    <col min="4" max="4" width="13.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1605,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1631,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1657,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:20">
+    <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1683,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="15.6" spans="1:20">
+    <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="35" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1711,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="15.6" spans="1:20">
+    <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="36"/>
       <c r="B6" s="13" t="s">
         <v>10</v>
@@ -1733,7 +1739,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="15.6" spans="1:20">
+    <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>13</v>
@@ -1759,7 +1765,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1783,7 +1789,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1811,7 +1817,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1839,7 +1845,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1867,7 +1873,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -1895,7 +1901,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
@@ -1923,7 +1929,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="15.6" spans="1:21">
+    <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="38"/>
@@ -1946,7 +1952,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" ht="15.6" spans="1:21">
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1973,7 +1979,7 @@
       <c r="T15" s="39"/>
       <c r="U15" s="39"/>
     </row>
-    <row r="16" ht="15.6" spans="1:21">
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +2006,7 @@
       <c r="T16" s="39"/>
       <c r="U16" s="39"/>
     </row>
-    <row r="17" ht="15.6" spans="1:21">
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -2027,7 +2033,7 @@
       <c r="T17" s="39"/>
       <c r="U17" s="39"/>
     </row>
-    <row r="18" ht="15.6" spans="1:21">
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2081,7 +2087,7 @@
       <c r="T19" s="47"/>
       <c r="U19" s="47"/>
     </row>
-    <row r="20" ht="15.6" spans="1:17">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="40" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2110,7 @@
       <c r="P20" s="41"/>
       <c r="Q20" s="48"/>
     </row>
-    <row r="21" ht="15.6" spans="1:17">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="40" t="s">
         <v>37</v>
       </c>
@@ -2127,7 +2133,7 @@
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
     </row>
-    <row r="22" ht="15.6" spans="1:17">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="40" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2156,7 @@
       <c r="P22" s="41"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" ht="15.6" spans="1:17">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="40" t="s">
         <v>41</v>
       </c>
@@ -2173,7 +2179,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" ht="15.6" spans="1:17">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="40" t="s">
         <v>43</v>
       </c>
@@ -2196,7 +2202,7 @@
       <c r="P24" s="41"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" ht="15.6" spans="1:17">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="42" t="s">
         <v>45</v>
       </c>
@@ -2395,33 +2401,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB$1:AF$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.8796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.8818181818182" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.37962962962963" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.38181818181818" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="7" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="11" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="15" max="17" width="5.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="19" max="21" width="5.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="23" max="25" width="5.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:32">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2480,7 +2486,7 @@
       </c>
       <c r="AF1" s="28"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="32.4" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2548,7 +2554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2589,7 +2595,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2600,10 +2606,18 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="G4" s="13">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13">
+        <v>22</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
@@ -2626,7 +2640,7 @@
       <c r="AE4" s="30"/>
       <c r="AF4" s="30"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2639,11 +2653,21 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="19"/>
+      <c r="G5" s="13">
+        <v>10.5</v>
+      </c>
+      <c r="H5" s="13">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="19">
+        <v>15</v>
+      </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -2665,7 +2689,7 @@
       <c r="AE5" s="30"/>
       <c r="AF5" s="30"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2676,15 +2700,25 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="13">
+        <v>11</v>
+      </c>
+      <c r="H6" s="13">
+        <v>24</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.5</v>
+      </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="20">
+        <v>18</v>
+      </c>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
       <c r="R6" s="20"/>
@@ -2702,7 +2736,7 @@
       <c r="AE6" s="30"/>
       <c r="AF6" s="30"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2729,11 +2763,15 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
-      <c r="S7" s="26"/>
+      <c r="S7" s="26">
+        <v>12</v>
+      </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
-      <c r="W7" s="19"/>
+      <c r="W7" s="19">
+        <v>14</v>
+      </c>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
@@ -2743,7 +2781,7 @@
       <c r="AE7" s="30"/>
       <c r="AF7" s="30"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -2782,7 +2820,7 @@
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -2819,7 +2857,7 @@
       <c r="AE9" s="30"/>
       <c r="AF9" s="30"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -2854,7 +2892,7 @@
       <c r="AE10" s="30"/>
       <c r="AF10" s="30"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -2891,7 +2929,7 @@
       <c r="AE11" s="30"/>
       <c r="AF11" s="30"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -2926,7 +2964,7 @@
       <c r="AE12" s="30"/>
       <c r="AF12" s="30"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -2965,7 +3003,7 @@
       <c r="AE13" s="30"/>
       <c r="AF13" s="30"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3000,7 +3038,7 @@
       <c r="AE14" s="30"/>
       <c r="AF14" s="30"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3037,7 +3075,7 @@
       <c r="AE15" s="30"/>
       <c r="AF15" s="30"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3074,7 +3112,7 @@
       <c r="AE16" s="30"/>
       <c r="AF16" s="30"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3109,7 +3147,7 @@
       <c r="AE17" s="30"/>
       <c r="AF17" s="30"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -3148,7 +3186,7 @@
       <c r="AE18" s="30"/>
       <c r="AF18" s="30"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3183,7 +3221,7 @@
       <c r="AE19" s="30"/>
       <c r="AF19" s="30"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -3220,7 +3258,7 @@
       <c r="AE20" s="30"/>
       <c r="AF20" s="30"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -3257,7 +3295,7 @@
       <c r="AE21" s="30"/>
       <c r="AF21" s="30"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -3295,7 +3333,7 @@
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -3329,7 +3367,7 @@
       <c r="AE23" s="30"/>
       <c r="AF23" s="30"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -3368,7 +3406,7 @@
       <c r="AE24" s="30"/>
       <c r="AF24" s="30"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -3403,7 +3441,7 @@
       <c r="AE25" s="30"/>
       <c r="AF25" s="30"/>
     </row>
-    <row r="26" ht="15.6" spans="1:32">
+    <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -3438,7 +3476,7 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
     </row>
-    <row r="27" ht="15.6" spans="1:32">
+    <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -3473,7 +3511,7 @@
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
     </row>
-    <row r="28" ht="15.6" spans="1:32">
+    <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -3514,7 +3552,7 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
     </row>
-    <row r="29" ht="15.6" spans="1:32">
+    <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -3553,7 +3591,7 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
     </row>
-    <row r="30" ht="15.6" spans="1:32">
+    <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="8" t="s">
         <v>98</v>
       </c>
@@ -3588,6 +3626,16 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="G1:J1"/>

--- a/script/测试用例 热.xlsx
+++ b/script/测试用例 热.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
   <si>
     <t>模式</t>
   </si>
@@ -318,13 +318,85 @@
     <t>关机</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
     <t>25，中</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>20.33</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
     <t>27，中</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21.33</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>22.5</t>
+  </si>
+  <si>
+    <t>23.5</t>
+  </si>
+  <si>
+    <t>24.5</t>
+  </si>
+  <si>
     <t>费用小计</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>调度次数</t>
@@ -372,14 +444,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1098,7 +1170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1130,58 +1202,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,14 +1731,14 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" ht="16.5" spans="1:20">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1684,16 +1757,16 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" ht="16.5" spans="1:20">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1712,14 +1785,14 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" ht="16.5" spans="1:20">
-      <c r="A6" s="36"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1"/>
@@ -1740,14 +1813,14 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" ht="16.5" spans="1:20">
-      <c r="A7" s="37"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1932,7 +2005,7 @@
     <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1956,424 +2029,424 @@
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
     </row>
     <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
     </row>
     <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
     </row>
     <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:21">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
     </row>
     <row r="20" ht="16.5" spans="1:17">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="48"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" ht="16.5" spans="1:17">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
     </row>
     <row r="22" ht="16.5" spans="1:17">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="48"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="49"/>
     </row>
     <row r="23" ht="16.5" spans="1:17">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="48"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="49"/>
     </row>
     <row r="24" ht="16.5" spans="1:17">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="48"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" ht="16.5" spans="1:17">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="40"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="41"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F27" s="45" t="s">
+      <c r="F27" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="45" t="s">
+      <c r="M27" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="M28" s="45" t="s">
+      <c r="M28" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="M30" s="45" t="s">
+      <c r="M30" s="46" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2401,10 +2474,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2452,39 +2525,39 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="24" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="15" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AB1" s="13" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AB1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AF1" s="28"/>
+      <c r="AF1" s="30"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
       <c r="A2" s="3"/>
@@ -2505,52 +2578,52 @@
       <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="19" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2618,27 +2691,30 @@
       <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A5" s="8">
@@ -2665,29 +2741,40 @@
       <c r="J5" s="13">
         <v>0.5</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="21">
         <v>15</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
+      <c r="L5" s="21">
+        <v>22</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A6" s="8">
@@ -2712,29 +2799,50 @@
       <c r="J6" s="13">
         <v>0.5</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20">
+      <c r="K6" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="L6" s="21">
+        <v>22</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="22">
         <v>18</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
+      <c r="P6" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="22">
+        <v>0</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A7" s="8">
@@ -2751,35 +2859,78 @@
       <c r="F7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="26">
+      <c r="G7" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="21">
+        <v>16</v>
+      </c>
+      <c r="L7" s="21">
+        <v>25</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="P7" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="27">
         <v>12</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="19">
+      <c r="T7" s="27">
+        <v>22</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="21">
         <v>14</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
+      <c r="X7" s="21">
+        <v>22</v>
+      </c>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="33">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A8" s="8">
@@ -2794,31 +2945,78 @@
       <c r="F8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="G8" s="13">
+        <v>12</v>
+      </c>
+      <c r="H8" s="13">
+        <v>24</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
+      <c r="J8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="L8" s="21">
+        <v>25</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O8" s="22">
+        <v>19</v>
+      </c>
+      <c r="P8" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="27">
+        <v>12</v>
+      </c>
+      <c r="T8" s="27">
+        <v>22</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <v>14</v>
+      </c>
+      <c r="X8" s="21">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="32">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="33">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="33">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A9" s="8">
@@ -2831,31 +3029,78 @@
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
+      <c r="G9" s="13">
+        <v>11.5</v>
+      </c>
+      <c r="H9" s="13">
+        <v>24</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="21">
+        <v>16</v>
+      </c>
+      <c r="L9" s="21">
+        <v>25</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>19.5</v>
+      </c>
+      <c r="P9" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="T9" s="27">
+        <v>22</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="21">
+        <v>15</v>
+      </c>
+      <c r="X9" s="21">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A10" s="8">
@@ -2866,31 +3111,78 @@
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
+      <c r="G10" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="13">
+        <v>24</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="13">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="L10" s="21">
+        <v>25</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>19</v>
+      </c>
+      <c r="P10" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="27">
+        <v>13</v>
+      </c>
+      <c r="T10" s="27">
+        <v>22</v>
+      </c>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="21">
+        <v>16</v>
+      </c>
+      <c r="X10" s="21">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A11" s="8">
@@ -2903,31 +3195,78 @@
       <c r="F11" s="12">
         <v>24</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
+      <c r="G11" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="H11" s="13">
+        <v>24</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>16</v>
+      </c>
+      <c r="L11" s="21">
+        <v>25</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O11" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="P11" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="T11" s="27">
+        <v>22</v>
+      </c>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
+        <v>17</v>
+      </c>
+      <c r="X11" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="33">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A12" s="8">
@@ -2938,31 +3277,78 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
+      <c r="G12" s="13">
+        <v>14.5</v>
+      </c>
+      <c r="H12" s="13">
+        <v>24</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="13">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="L12" s="21">
+        <v>25</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="O12" s="22">
+        <v>18</v>
+      </c>
+      <c r="P12" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S12" s="27">
+        <v>12</v>
+      </c>
+      <c r="T12" s="27">
+        <v>22</v>
+      </c>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
+        <v>18</v>
+      </c>
+      <c r="X12" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A13" s="8">
@@ -2977,31 +3363,78 @@
         <v>94</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
+      <c r="G13" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="H13" s="13">
+        <v>24</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>16</v>
+      </c>
+      <c r="L13" s="21">
+        <v>25</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="P13" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="27">
+        <v>12</v>
+      </c>
+      <c r="T13" s="27">
+        <v>22</v>
+      </c>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27">
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
+        <v>19</v>
+      </c>
+      <c r="X13" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A14" s="8">
@@ -3012,31 +3445,78 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
+      <c r="G14" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>24</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="L14" s="21">
+        <v>25</v>
+      </c>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
+        <v>19</v>
+      </c>
+      <c r="P14" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S14" s="27">
+        <v>12</v>
+      </c>
+      <c r="T14" s="27">
+        <v>22</v>
+      </c>
+      <c r="U14" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="27">
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
+        <v>20</v>
+      </c>
+      <c r="X14" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A15" s="8">
@@ -3049,31 +3529,78 @@
       <c r="F15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
+      <c r="G15" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="H15" s="13">
+        <v>24</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="13">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>15</v>
+      </c>
+      <c r="L15" s="21">
+        <v>25</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
+        <v>18</v>
+      </c>
+      <c r="P15" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22">
+        <v>0</v>
+      </c>
+      <c r="S15" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="T15" s="27">
+        <v>22</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W15" s="21">
+        <v>21</v>
+      </c>
+      <c r="X15" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD15" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="33">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="33">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A16" s="8">
@@ -3086,31 +3613,78 @@
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
+      <c r="G16" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="H16" s="13">
+        <v>24</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="13">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>15</v>
+      </c>
+      <c r="L16" s="21">
+        <v>25</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22">
+        <v>18</v>
+      </c>
+      <c r="P16" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="27">
+        <v>13</v>
+      </c>
+      <c r="T16" s="27">
+        <v>22</v>
+      </c>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="X16" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="33">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A17" s="8">
@@ -3121,31 +3695,78 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
+      <c r="G17" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>24</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>16</v>
+      </c>
+      <c r="L17" s="21">
+        <v>25</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="21">
+        <v>1</v>
+      </c>
+      <c r="O17" s="22">
+        <v>18</v>
+      </c>
+      <c r="P17" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="22">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="T17" s="27">
+        <v>22</v>
+      </c>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27">
+        <v>0</v>
+      </c>
+      <c r="W17" s="21">
+        <v>22</v>
+      </c>
+      <c r="X17" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF17" s="33">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A18" s="8">
@@ -3160,31 +3781,76 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="H18" s="13">
+        <v>24</v>
+      </c>
       <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
+      <c r="J18" s="13">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21">
+        <v>17</v>
+      </c>
+      <c r="L18" s="21">
+        <v>25</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="P18" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="27">
+        <v>12</v>
+      </c>
+      <c r="T18" s="27">
+        <v>22</v>
+      </c>
+      <c r="U18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="27">
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="X18" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE18" s="33">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="33"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A19" s="8">
@@ -3195,31 +3861,72 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="14"/>
+      <c r="G19" s="13">
+        <v>20</v>
+      </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
+      <c r="K19" s="21">
+        <v>18</v>
+      </c>
+      <c r="L19" s="21">
+        <v>25</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1</v>
+      </c>
+      <c r="O19" s="22">
+        <v>18</v>
+      </c>
+      <c r="P19" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="27">
+        <v>12.5</v>
+      </c>
+      <c r="T19" s="27">
+        <v>22</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="21">
+        <v>22</v>
+      </c>
+      <c r="X19" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE19" s="33">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="33"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A20" s="8">
@@ -3232,31 +3939,70 @@
       <c r="F20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="13">
+        <v>19.5</v>
+      </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
+      <c r="K20" s="21">
+        <v>19</v>
+      </c>
+      <c r="L20" s="21">
+        <v>25</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="21">
+        <v>1</v>
+      </c>
+      <c r="O20" s="22">
+        <v>18</v>
+      </c>
+      <c r="P20" s="22">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+      <c r="S20" s="27">
+        <v>13</v>
+      </c>
+      <c r="T20" s="27">
+        <v>22</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="V20" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="W20" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="X20" s="21">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A21" s="8">
@@ -3269,31 +4015,66 @@
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
+      <c r="G21" s="14">
+        <v>19</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="23">
+        <v>20</v>
+      </c>
+      <c r="L21" s="23">
+        <v>25</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="23">
+        <v>1</v>
+      </c>
+      <c r="O21" s="24">
+        <v>18.33</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A22" s="8">
@@ -3304,34 +4085,75 @@
       </c>
       <c r="C22" s="12"/>
       <c r="E22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
+      <c r="Q22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="33"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A23" s="8">
@@ -3341,31 +4163,72 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
+      <c r="G23" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="33"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A24" s="8">
@@ -3373,38 +4236,85 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
+      <c r="G24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE24" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="33">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A25" s="8">
@@ -3415,31 +4325,76 @@
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
+      <c r="G25" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="33">
+        <v>5</v>
+      </c>
+      <c r="AF25" s="33"/>
     </row>
     <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="8">
@@ -3450,31 +4405,74 @@
       <c r="D26" s="1"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
+      <c r="G26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U26" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V26" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="X26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
     </row>
     <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="8">
@@ -3485,31 +4483,76 @@
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
+      <c r="G27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="33">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="33"/>
     </row>
     <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="8">
@@ -3526,31 +4569,70 @@
       <c r="F28" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
+      <c r="G28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
     </row>
     <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="8">
@@ -3565,76 +4647,238 @@
         <v>95</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
     </row>
     <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="8" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="33"/>
+      <c r="AF30" s="33"/>
+    </row>
+    <row r="31" spans="7:32">
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="16"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="16"/>
+    </row>
+    <row r="34" spans="7:32">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="16"/>
+      <c r="AF34" s="16"/>
+    </row>
+    <row r="35" spans="7:32">
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="16"/>
+      <c r="AF35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/script/测试用例 热.xlsx
+++ b/script/测试用例 热.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="10800" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="127">
   <si>
     <t>模式</t>
   </si>
@@ -357,22 +357,28 @@
     <t>20.33</t>
   </si>
   <si>
+    <t>27，中</t>
+  </si>
+  <si>
     <t>20.5</t>
   </si>
   <si>
-    <t>27，中</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>21.33</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>0.67</t>
   </si>
   <si>
     <t>22.5</t>
@@ -1208,8 +1214,8 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,9 +1258,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2474,10 +2480,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF35"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2707,14 +2713,14 @@
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32">
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="31">
         <v>1</v>
       </c>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A5" s="8">
@@ -2765,16 +2771,16 @@
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="32">
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="31">
         <v>1</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="31">
         <v>2</v>
       </c>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A6" s="8">
@@ -2831,18 +2837,18 @@
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="32">
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="31">
         <v>1</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="31">
         <v>2</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="31">
         <v>3</v>
       </c>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A7" s="8">
@@ -2915,20 +2921,20 @@
       <c r="Z7" s="21">
         <v>0</v>
       </c>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="32">
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="31">
         <v>1</v>
       </c>
-      <c r="AC7" s="32">
+      <c r="AC7" s="31">
         <v>2</v>
       </c>
-      <c r="AD7" s="32">
+      <c r="AD7" s="31">
         <v>3</v>
       </c>
-      <c r="AE7" s="33">
+      <c r="AE7" s="32">
         <v>4</v>
       </c>
-      <c r="AF7" s="33">
+      <c r="AF7" s="32">
         <v>5</v>
       </c>
     </row>
@@ -3001,20 +3007,20 @@
       <c r="Z8" s="21">
         <v>0</v>
       </c>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="32">
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="31">
         <v>3</v>
       </c>
-      <c r="AC8" s="32">
+      <c r="AC8" s="31">
         <v>4</v>
       </c>
-      <c r="AD8" s="32">
+      <c r="AD8" s="31">
         <v>5</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="32">
         <v>1</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF8" s="32">
         <v>2</v>
       </c>
     </row>
@@ -3085,20 +3091,20 @@
       <c r="Z9" s="21">
         <v>1</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="32">
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="31">
         <v>1</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="31">
         <v>4</v>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="31">
         <v>5</v>
       </c>
-      <c r="AE9" s="33">
+      <c r="AE9" s="32">
         <v>2</v>
       </c>
-      <c r="AF9" s="33">
+      <c r="AF9" s="32">
         <v>3</v>
       </c>
     </row>
@@ -3167,20 +3173,20 @@
       <c r="Z10" s="21">
         <v>1</v>
       </c>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="32">
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="31">
         <v>1</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AC10" s="31">
         <v>5</v>
       </c>
-      <c r="AD10" s="32">
+      <c r="AD10" s="31">
         <v>2</v>
       </c>
-      <c r="AE10" s="33">
+      <c r="AE10" s="32">
         <v>3</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AF10" s="32">
         <v>4</v>
       </c>
     </row>
@@ -3251,20 +3257,20 @@
       <c r="Z11" s="21">
         <v>1</v>
       </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="32">
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="31">
         <v>1</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="31">
         <v>5</v>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="31">
         <v>2</v>
       </c>
-      <c r="AE11" s="33">
+      <c r="AE11" s="32">
         <v>3</v>
       </c>
-      <c r="AF11" s="33">
+      <c r="AF11" s="32">
         <v>4</v>
       </c>
     </row>
@@ -3333,20 +3339,20 @@
       <c r="Z12" s="21">
         <v>1</v>
       </c>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="32">
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="31">
         <v>1</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="31">
         <v>5</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <v>3</v>
       </c>
-      <c r="AE12" s="33">
+      <c r="AE12" s="32">
         <v>2</v>
       </c>
-      <c r="AF12" s="33">
+      <c r="AF12" s="32">
         <v>4</v>
       </c>
     </row>
@@ -3419,20 +3425,20 @@
       <c r="Z13" s="21">
         <v>1</v>
       </c>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="32">
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="31">
         <v>1</v>
       </c>
-      <c r="AC13" s="32">
+      <c r="AC13" s="31">
         <v>5</v>
       </c>
-      <c r="AD13" s="32">
+      <c r="AD13" s="31">
         <v>3</v>
       </c>
-      <c r="AE13" s="33">
+      <c r="AE13" s="32">
         <v>2</v>
       </c>
-      <c r="AF13" s="33">
+      <c r="AF13" s="32">
         <v>4</v>
       </c>
     </row>
@@ -3501,20 +3507,20 @@
       <c r="Z14" s="21">
         <v>1</v>
       </c>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="32">
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="31">
         <v>1</v>
       </c>
-      <c r="AC14" s="32">
+      <c r="AC14" s="31">
         <v>5</v>
       </c>
-      <c r="AD14" s="32">
+      <c r="AD14" s="31">
         <v>4</v>
       </c>
-      <c r="AE14" s="33">
+      <c r="AE14" s="32">
         <v>2</v>
       </c>
-      <c r="AF14" s="33">
+      <c r="AF14" s="32">
         <v>3</v>
       </c>
     </row>
@@ -3585,20 +3591,20 @@
       <c r="Z15" s="21">
         <v>1</v>
       </c>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="32">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="31">
         <v>1</v>
       </c>
-      <c r="AC15" s="32">
+      <c r="AC15" s="31">
         <v>5</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="31">
         <v>4</v>
       </c>
-      <c r="AE15" s="33">
+      <c r="AE15" s="32">
         <v>2</v>
       </c>
-      <c r="AF15" s="33">
+      <c r="AF15" s="32">
         <v>3</v>
       </c>
     </row>
@@ -3669,20 +3675,20 @@
       <c r="Z16" s="21">
         <v>0.5</v>
       </c>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="32">
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="31">
         <v>1</v>
       </c>
-      <c r="AC16" s="32">
+      <c r="AC16" s="31">
         <v>2</v>
       </c>
-      <c r="AD16" s="32">
+      <c r="AD16" s="31">
         <v>2</v>
       </c>
-      <c r="AE16" s="33">
+      <c r="AE16" s="32">
         <v>3</v>
       </c>
-      <c r="AF16" s="33">
+      <c r="AF16" s="32">
         <v>4</v>
       </c>
     </row>
@@ -3751,20 +3757,20 @@
       <c r="Z17" s="21">
         <v>0.5</v>
       </c>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="32">
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="31">
         <v>1</v>
       </c>
-      <c r="AC17" s="32">
+      <c r="AC17" s="31">
         <v>2</v>
       </c>
-      <c r="AD17" s="32">
+      <c r="AD17" s="31">
         <v>3</v>
       </c>
-      <c r="AE17" s="33">
+      <c r="AE17" s="32">
         <v>4</v>
       </c>
-      <c r="AF17" s="33">
+      <c r="AF17" s="32">
         <v>5</v>
       </c>
     </row>
@@ -3837,20 +3843,20 @@
       <c r="Z18" s="21">
         <v>0</v>
       </c>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="32">
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="31">
         <v>2</v>
       </c>
-      <c r="AC18" s="32">
+      <c r="AC18" s="31">
         <v>4</v>
       </c>
-      <c r="AD18" s="32">
+      <c r="AD18" s="31">
         <v>5</v>
       </c>
-      <c r="AE18" s="33">
+      <c r="AE18" s="32">
         <v>3</v>
       </c>
-      <c r="AF18" s="33"/>
+      <c r="AF18" s="32"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A19" s="8">
@@ -3913,20 +3919,20 @@
       <c r="Z19" s="21">
         <v>0.5</v>
       </c>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="32">
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="31">
         <v>2</v>
       </c>
-      <c r="AC19" s="32">
+      <c r="AC19" s="31">
         <v>4</v>
       </c>
-      <c r="AD19" s="32">
+      <c r="AD19" s="31">
         <v>5</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AE19" s="32">
         <v>3</v>
       </c>
-      <c r="AF19" s="33"/>
+      <c r="AF19" s="32"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A20" s="8">
@@ -3991,18 +3997,18 @@
       <c r="Z20" s="21">
         <v>0.5</v>
       </c>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="32">
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="31">
         <v>2</v>
       </c>
-      <c r="AC20" s="32">
+      <c r="AC20" s="31">
         <v>3</v>
       </c>
-      <c r="AD20" s="32">
+      <c r="AD20" s="31">
         <v>4</v>
       </c>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A21" s="8">
@@ -4063,18 +4069,18 @@
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="32">
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="31">
         <v>2</v>
       </c>
-      <c r="AC21" s="32">
+      <c r="AC21" s="31">
         <v>3</v>
       </c>
-      <c r="AD21" s="32">
+      <c r="AD21" s="31">
         <v>4</v>
       </c>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A22" s="8">
@@ -4140,20 +4146,20 @@
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="32">
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="31">
         <v>1</v>
       </c>
-      <c r="AC22" s="32">
+      <c r="AC22" s="31">
         <v>2</v>
       </c>
-      <c r="AD22" s="32">
+      <c r="AD22" s="31">
         <v>3</v>
       </c>
-      <c r="AE22" s="33">
+      <c r="AE22" s="32">
         <v>4</v>
       </c>
-      <c r="AF22" s="33"/>
+      <c r="AF22" s="32"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A23" s="8">
@@ -4200,10 +4206,10 @@
         <v>59</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U23" s="28"/>
       <c r="V23" s="28" t="s">
@@ -4215,20 +4221,20 @@
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="32">
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="31">
         <v>1</v>
       </c>
-      <c r="AC23" s="32">
+      <c r="AC23" s="31">
         <v>2</v>
       </c>
-      <c r="AD23" s="32">
+      <c r="AD23" s="31">
         <v>3</v>
       </c>
-      <c r="AE23" s="33">
+      <c r="AE23" s="32">
         <v>4</v>
       </c>
-      <c r="AF23" s="33"/>
+      <c r="AF23" s="32"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A24" s="8">
@@ -4236,7 +4242,7 @@
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -4244,7 +4250,7 @@
         <v>93</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>100</v>
@@ -4283,14 +4289,14 @@
         <v>113</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
         <v>105</v>
       </c>
       <c r="W24" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X24" s="23" t="s">
         <v>100</v>
@@ -4299,20 +4305,20 @@
       <c r="Z24" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="32">
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="31">
         <v>1</v>
       </c>
-      <c r="AC24" s="32">
+      <c r="AC24" s="31">
         <v>2</v>
       </c>
-      <c r="AD24" s="32">
+      <c r="AD24" s="31">
         <v>3</v>
       </c>
-      <c r="AE24" s="33">
+      <c r="AE24" s="32">
         <v>4</v>
       </c>
-      <c r="AF24" s="33">
+      <c r="AF24" s="32">
         <v>5</v>
       </c>
     </row>
@@ -4360,10 +4366,10 @@
         <v>114</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U25" s="28" t="s">
         <v>10</v>
@@ -4372,7 +4378,7 @@
         <v>105</v>
       </c>
       <c r="W25" s="23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X25" s="23" t="s">
         <v>100</v>
@@ -4381,20 +4387,20 @@
       <c r="Z25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="32">
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="31">
         <v>1</v>
       </c>
-      <c r="AC25" s="32">
+      <c r="AC25" s="31">
         <v>2</v>
       </c>
-      <c r="AD25" s="32">
+      <c r="AD25" s="31">
         <v>4</v>
       </c>
-      <c r="AE25" s="33">
+      <c r="AE25" s="32">
         <v>5</v>
       </c>
-      <c r="AF25" s="33"/>
+      <c r="AF25" s="32"/>
     </row>
     <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="8">
@@ -4406,7 +4412,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>100</v>
@@ -4441,7 +4447,7 @@
         <v>113</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U26" s="28" t="s">
         <v>10</v>
@@ -4461,18 +4467,18 @@
       <c r="Z26" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="32">
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="31">
         <v>1</v>
       </c>
-      <c r="AC26" s="32">
+      <c r="AC26" s="31">
         <v>4</v>
       </c>
-      <c r="AD26" s="32">
+      <c r="AD26" s="31">
         <v>5</v>
       </c>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
     </row>
     <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="8">
@@ -4484,7 +4490,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>100</v>
@@ -4496,7 +4502,7 @@
         <v>59</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>102</v>
@@ -4518,17 +4524,17 @@
         <v>105</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U27" s="28"/>
       <c r="V27" s="28" t="s">
         <v>98</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X27" s="23" t="s">
         <v>100</v>
@@ -4539,20 +4545,20 @@
       <c r="Z27" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="32">
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="31">
         <v>1</v>
       </c>
-      <c r="AC27" s="32">
+      <c r="AC27" s="31">
         <v>3</v>
       </c>
-      <c r="AD27" s="32">
+      <c r="AD27" s="31">
         <v>5</v>
       </c>
-      <c r="AE27" s="33">
+      <c r="AE27" s="32">
         <v>4</v>
       </c>
-      <c r="AF27" s="33"/>
+      <c r="AF27" s="32"/>
     </row>
     <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="8">
@@ -4605,7 +4611,7 @@
         <v>113</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U28" s="28" t="s">
         <v>10</v>
@@ -4614,7 +4620,7 @@
         <v>105</v>
       </c>
       <c r="W28" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X28" s="23" t="s">
         <v>100</v>
@@ -4623,16 +4629,16 @@
       <c r="Z28" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="32">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="31">
         <v>2</v>
       </c>
-      <c r="AC28" s="32">
+      <c r="AC28" s="31">
         <v>4</v>
       </c>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
     </row>
     <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="8">
@@ -4666,10 +4672,10 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="28" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>10</v>
@@ -4681,16 +4687,16 @@
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
     </row>
     <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4701,7 +4707,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
@@ -4713,28 +4719,34 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
       <c r="V30" s="28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-    </row>
-    <row r="31" spans="7:32">
+        <v>124</v>
+      </c>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:32">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
@@ -4759,13 +4771,18 @@
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="A32" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:32">
+      <c r="A32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
@@ -4790,13 +4807,18 @@
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-    </row>
-    <row r="33" spans="1:32">
-      <c r="A33" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+    </row>
+    <row r="33" ht="16.5" spans="1:32">
+      <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -4821,10 +4843,16 @@
       <c r="AB33" s="16"/>
       <c r="AC33" s="16"/>
       <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-    </row>
-    <row r="34" spans="7:32">
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+    </row>
+    <row r="34" ht="16.5" spans="1:32">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -4849,10 +4877,16 @@
       <c r="AB34" s="16"/>
       <c r="AC34" s="16"/>
       <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-    </row>
-    <row r="35" spans="7:32">
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:32">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
@@ -4877,8 +4911,72 @@
       <c r="AB35" s="16"/>
       <c r="AC35" s="16"/>
       <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+    </row>
+    <row r="36" ht="16.5" spans="1:30">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:30">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/script/测试用例 热.xlsx
+++ b/script/测试用例 热.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10800" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="14508" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="128">
   <si>
     <t>模式</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>28，高</t>
+  </si>
+  <si>
+    <t>到这个位置</t>
   </si>
   <si>
     <t>关机</t>
@@ -1651,14 +1654,14 @@
       <selection activeCell="B20" sqref="B20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
-    <col min="4" max="4" width="13.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:20">
+    <row r="1" ht="15.6" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1687,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:20">
+    <row r="2" ht="15.6" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1713,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:20">
+    <row r="3" ht="15.6" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="16.5" spans="1:20">
+    <row r="4" ht="15.6" spans="1:20">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1765,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="16.5" spans="1:20">
+    <row r="5" ht="15.6" spans="1:20">
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1793,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="16.5" spans="1:20">
+    <row r="6" ht="15.6" spans="1:20">
       <c r="A6" s="37"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -1818,7 +1821,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="16.5" spans="1:20">
+    <row r="7" ht="15.6" spans="1:20">
       <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -1844,7 +1847,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="16.5" spans="1:20">
+    <row r="8" ht="15.6" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1868,7 +1871,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="16.5" spans="1:20">
+    <row r="9" ht="15.6" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1896,7 +1899,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="16.5" spans="1:20">
+    <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1924,7 +1927,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="16.5" spans="1:20">
+    <row r="11" ht="15.6" spans="1:20">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1952,7 +1955,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="16.5" spans="1:20">
+    <row r="12" ht="15.6" spans="1:20">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -1980,7 +1983,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="16.5" spans="1:20">
+    <row r="13" ht="15.6" spans="1:20">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
@@ -2008,7 +2011,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="16.5" spans="1:21">
+    <row r="14" ht="15.6" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="39"/>
@@ -2031,7 +2034,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" ht="16.5" spans="1:21">
+    <row r="15" ht="15.6" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -2058,7 +2061,7 @@
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" ht="16.5" spans="1:21">
+    <row r="16" ht="15.6" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2088,7 @@
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
     </row>
-    <row r="17" ht="16.5" spans="1:21">
+    <row r="17" ht="15.6" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -2112,7 +2115,7 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" ht="16.5" spans="1:21">
+    <row r="18" ht="15.6" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2169,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" ht="16.5" spans="1:17">
+    <row r="20" ht="15.6" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
@@ -2189,7 +2192,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" ht="16.5" spans="1:17">
+    <row r="21" ht="15.6" spans="1:17">
       <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
@@ -2212,7 +2215,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" ht="16.5" spans="1:17">
+    <row r="22" ht="15.6" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>39</v>
       </c>
@@ -2235,7 +2238,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" ht="16.5" spans="1:17">
+    <row r="23" ht="15.6" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>41</v>
       </c>
@@ -2258,7 +2261,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" ht="16.5" spans="1:17">
+    <row r="24" ht="15.6" spans="1:17">
       <c r="A24" s="41" t="s">
         <v>43</v>
       </c>
@@ -2281,7 +2284,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" ht="16.5" spans="1:17">
+    <row r="25" ht="15.6" spans="1:17">
       <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
@@ -2480,33 +2483,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF37"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.38181818181818" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.37962962962963" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.75" style="2" customWidth="1"/>
     <col min="7" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="11" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="15" max="17" width="5.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="19" max="21" width="5.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="23" max="25" width="5.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2565,7 +2568,7 @@
       </c>
       <c r="AF1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="32.4" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2633,7 +2636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="32"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2782,7 +2785,7 @@
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2850,7 +2853,7 @@
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2871,9 +2874,7 @@
       <c r="H7" s="13">
         <v>24</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="13">
         <v>0.5</v>
       </c>
@@ -2883,9 +2884,7 @@
       <c r="L7" s="21">
         <v>25</v>
       </c>
-      <c r="M7" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="M7" s="21"/>
       <c r="N7" s="21">
         <v>0.5</v>
       </c>
@@ -2907,7 +2906,9 @@
       <c r="T7" s="27">
         <v>22</v>
       </c>
-      <c r="U7" s="27"/>
+      <c r="U7" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="V7" s="27">
         <v>0</v>
       </c>
@@ -2917,7 +2918,9 @@
       <c r="X7" s="21">
         <v>22</v>
       </c>
-      <c r="Y7" s="21"/>
+      <c r="Y7" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="Z7" s="21">
         <v>0</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -2952,24 +2955,28 @@
         <v>8</v>
       </c>
       <c r="G8" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="13">
         <v>24</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="J8" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="21">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="L8" s="21">
         <v>25</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="N8" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="22">
         <v>19</v>
@@ -2977,26 +2984,22 @@
       <c r="P8" s="22">
         <v>22</v>
       </c>
-      <c r="Q8" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q8" s="22"/>
       <c r="R8" s="22">
         <v>0.5</v>
       </c>
       <c r="S8" s="27">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="T8" s="27">
         <v>22</v>
       </c>
-      <c r="U8" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="U8" s="27"/>
       <c r="V8" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W8" s="21">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X8" s="21">
         <v>22</v>
@@ -3005,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="Z8" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA8" s="16"/>
       <c r="AB8" s="31">
@@ -3024,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="21">
         <v>16</v>
@@ -3055,32 +3058,32 @@
       </c>
       <c r="M9" s="21"/>
       <c r="N9" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="22">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="P9" s="22">
         <v>22</v>
       </c>
-      <c r="Q9" s="22"/>
+      <c r="Q9" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="R9" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S9" s="27">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="T9" s="27">
         <v>22</v>
       </c>
-      <c r="U9" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="U9" s="27"/>
       <c r="V9" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W9" s="21">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X9" s="21">
         <v>22</v>
@@ -3108,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3152,17 +3155,19 @@
         <v>0.5</v>
       </c>
       <c r="S10" s="27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T10" s="27">
         <v>22</v>
       </c>
-      <c r="U10" s="27"/>
+      <c r="U10" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="V10" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W10" s="21">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X10" s="21">
         <v>22</v>
@@ -3190,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="21">
         <v>25</v>
@@ -3233,7 +3238,7 @@
       </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S11" s="27">
         <v>12.5</v>
@@ -3243,10 +3248,10 @@
       </c>
       <c r="U11" s="27"/>
       <c r="V11" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W11" s="21">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X11" s="21">
         <v>24</v>
@@ -3274,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="21">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="L12" s="21">
         <v>25</v>
@@ -3315,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="R12" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S12" s="27">
         <v>12</v>
@@ -3328,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="21">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X12" s="21">
         <v>24</v>
@@ -3356,7 +3361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="21">
         <v>25</v>
@@ -3397,9 +3402,7 @@
       <c r="P13" s="22">
         <v>22</v>
       </c>
-      <c r="Q13" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q13" s="22"/>
       <c r="R13" s="22">
         <v>0.5</v>
       </c>
@@ -3409,12 +3412,14 @@
       <c r="T13" s="27">
         <v>22</v>
       </c>
-      <c r="U13" s="27"/>
+      <c r="U13" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="V13" s="27">
         <v>0</v>
       </c>
       <c r="W13" s="21">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="X13" s="21">
         <v>24</v>
@@ -3442,7 +3447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3464,39 +3469,39 @@
         <v>1</v>
       </c>
       <c r="K14" s="21">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L14" s="21">
         <v>25</v>
       </c>
-      <c r="M14" s="21"/>
+      <c r="M14" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="N14" s="21">
         <v>0</v>
       </c>
       <c r="O14" s="22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="22">
         <v>22</v>
       </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S14" s="27">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="T14" s="27">
         <v>22</v>
       </c>
-      <c r="U14" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="U14" s="27"/>
       <c r="V14" s="27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W14" s="21">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="X14" s="21">
         <v>24</v>
@@ -3524,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3548,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="21">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="L15" s="21">
         <v>25</v>
@@ -3563,24 +3568,24 @@
       <c r="P15" s="22">
         <v>22</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="R15" s="22">
         <v>0</v>
       </c>
       <c r="S15" s="27">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="T15" s="27">
         <v>22</v>
       </c>
-      <c r="U15" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="U15" s="27"/>
       <c r="V15" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W15" s="21">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="X15" s="21">
         <v>24</v>
@@ -3608,7 +3613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:33">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3644,14 +3649,14 @@
         <v>0</v>
       </c>
       <c r="O16" s="22">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="P16" s="22">
         <v>22</v>
       </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S16" s="27">
         <v>13</v>
@@ -3691,8 +3696,11 @@
       <c r="AF16" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
+      <c r="AG16" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3774,12 +3782,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -3858,7 +3866,7 @@
       </c>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3934,7 +3942,7 @@
       </c>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -3943,7 +3951,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="13">
         <v>19.5</v>
@@ -4010,7 +4018,7 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4043,7 +4051,7 @@
         <v>18.33</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q21" s="24" t="s">
         <v>8</v>
@@ -4052,19 +4060,19 @@
         <v>0.33</v>
       </c>
       <c r="S21" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T21" s="28" t="s">
         <v>97</v>
-      </c>
-      <c r="T21" s="28" t="s">
-        <v>96</v>
       </c>
       <c r="U21" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V21" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
@@ -4082,7 +4090,7 @@
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4091,14 +4099,14 @@
       </c>
       <c r="C22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="14">
         <v>18.5</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>8</v>
@@ -4107,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>8</v>
@@ -4119,10 +4127,10 @@
         <v>59</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="24" t="s">
         <v>8</v>
@@ -4131,17 +4139,17 @@
         <v>59</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U22" s="28"/>
       <c r="V22" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W22" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
@@ -4161,7 +4169,7 @@
       </c>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4170,10 +4178,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>8</v>
@@ -4182,10 +4190,10 @@
         <v>59</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>8</v>
@@ -4194,10 +4202,10 @@
         <v>59</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="24" t="s">
         <v>8</v>
@@ -4206,17 +4214,17 @@
         <v>59</v>
       </c>
       <c r="S23" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U23" s="28"/>
       <c r="V23" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
@@ -4236,13 +4244,13 @@
       </c>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -4250,10 +4258,10 @@
         <v>93</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>8</v>
@@ -4262,10 +4270,10 @@
         <v>59</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>8</v>
@@ -4274,10 +4282,10 @@
         <v>59</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="24" t="s">
         <v>8</v>
@@ -4286,24 +4294,24 @@
         <v>59</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W24" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X24" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA24" s="16"/>
       <c r="AB24" s="31">
@@ -4322,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4332,10 +4340,10 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>8</v>
@@ -4344,10 +4352,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>8</v>
@@ -4356,36 +4364,36 @@
         <v>59</v>
       </c>
       <c r="O25" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U25" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V25" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W25" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X25" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="23"/>
       <c r="Z25" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA25" s="16"/>
       <c r="AB25" s="31">
@@ -4402,7 +4410,7 @@
       </c>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" ht="16.5" spans="1:32">
+    <row r="26" ht="15.6" spans="1:32">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4412,10 +4420,10 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>8</v>
@@ -4424,48 +4432,48 @@
         <v>59</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23" t="s">
         <v>59</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U26" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V26" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W26" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X26" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y26" s="23" t="s">
         <v>10</v>
       </c>
       <c r="Z26" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA26" s="33"/>
       <c r="AB26" s="31">
@@ -4480,7 +4488,7 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
     </row>
-    <row r="27" ht="16.5" spans="1:32">
+    <row r="27" ht="15.6" spans="1:32">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4490,10 +4498,10 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>8</v>
@@ -4502,48 +4510,48 @@
         <v>59</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q27" s="24" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U27" s="28"/>
       <c r="V27" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X27" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y27" s="23" t="s">
         <v>10</v>
       </c>
       <c r="Z27" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA27" s="33"/>
       <c r="AB27" s="31">
@@ -4560,74 +4568,74 @@
       </c>
       <c r="AF27" s="32"/>
     </row>
-    <row r="28" ht="16.5" spans="1:32">
+    <row r="28" ht="15.6" spans="1:32">
       <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P28" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q28" s="24"/>
       <c r="R28" s="24" t="s">
         <v>59</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W28" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X28" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA28" s="33"/>
       <c r="AB28" s="31">
@@ -4640,17 +4648,17 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
     </row>
-    <row r="29" ht="16.5" spans="1:32">
+    <row r="29" ht="15.6" spans="1:32">
       <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="14"/>
@@ -4658,10 +4666,10 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23" t="s">
@@ -4672,16 +4680,16 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V29" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
@@ -4694,9 +4702,9 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
     </row>
-    <row r="30" ht="16.5" spans="1:32">
+    <row r="30" ht="15.6" spans="1:32">
       <c r="A30" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4707,31 +4715,31 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
       <c r="V30" s="28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA30" s="33"/>
       <c r="AB30" s="31"/>
@@ -4740,7 +4748,7 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
-    <row r="31" ht="16.5" spans="1:32">
+    <row r="31" ht="15.6" spans="1:32">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4774,9 +4782,9 @@
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
     </row>
-    <row r="32" ht="16.5" spans="1:32">
+    <row r="32" ht="15.6" spans="1:32">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4810,9 +4818,9 @@
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
     </row>
-    <row r="33" ht="16.5" spans="1:32">
+    <row r="33" ht="15.6" spans="1:32">
       <c r="A33" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4846,7 +4854,7 @@
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
     </row>
-    <row r="34" ht="16.5" spans="1:32">
+    <row r="34" ht="15.6" spans="1:32">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4880,7 +4888,7 @@
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
     </row>
-    <row r="35" ht="16.5" spans="1:32">
+    <row r="35" ht="15.6" spans="1:32">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4914,7 +4922,7 @@
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
     </row>
-    <row r="36" ht="16.5" spans="1:30">
+    <row r="36" ht="15.6" spans="1:30">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4946,7 +4954,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" ht="16.5" spans="1:30">
+    <row r="37" ht="15.6" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/script/测试用例 热.xlsx
+++ b/script/测试用例 热.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14508" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="134">
   <si>
     <t>模式</t>
   </si>
@@ -315,76 +315,88 @@
     <t>28，高</t>
   </si>
   <si>
-    <t>到这个位置</t>
-  </si>
-  <si>
     <t>关机</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
+    <t>25，中</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>19.33</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>20.33</t>
+  </si>
+  <si>
+    <t>27，中</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>21.33</t>
+  </si>
+  <si>
     <t>13.5</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>25，中</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>19.33</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>19</t>
   </si>
   <si>
     <t>21.5</t>
   </si>
   <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>20.33</t>
-  </si>
-  <si>
-    <t>27，中</t>
-  </si>
-  <si>
-    <t>20.5</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>21.33</t>
+    <t>0.67</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>0.67</t>
+    <t>18.67</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>22.5</t>
   </si>
   <si>
     <t>12.5</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>22.5</t>
+    <t>19.17</t>
   </si>
   <si>
     <t>23.5</t>
@@ -393,19 +405,25 @@
     <t>24.5</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19.67</t>
+  </si>
+  <si>
     <t>费用小计</t>
   </si>
   <si>
     <t>16.5</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>9.66</t>
   </si>
   <si>
     <t>调度次数</t>
@@ -1654,14 +1672,14 @@
       <selection activeCell="B20" sqref="B20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
+    <col min="4" max="4" width="13.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1705,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1731,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1739,7 +1757,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:20">
+    <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1783,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="15.6" spans="1:20">
+    <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
@@ -1793,7 +1811,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="15.6" spans="1:20">
+    <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="37"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -1821,7 +1839,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="15.6" spans="1:20">
+    <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -1847,7 +1865,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +1889,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1899,7 +1917,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1927,7 +1945,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1955,7 +1973,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -1983,7 +2001,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
@@ -2011,7 +2029,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="15.6" spans="1:21">
+    <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="39"/>
@@ -2034,7 +2052,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" ht="15.6" spans="1:21">
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -2061,7 +2079,7 @@
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" ht="15.6" spans="1:21">
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2088,7 +2106,7 @@
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
     </row>
-    <row r="17" ht="15.6" spans="1:21">
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -2115,7 +2133,7 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" ht="15.6" spans="1:21">
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2187,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" ht="15.6" spans="1:17">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
@@ -2192,7 +2210,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" ht="15.6" spans="1:17">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
@@ -2215,7 +2233,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" ht="15.6" spans="1:17">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2256,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" ht="15.6" spans="1:17">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>41</v>
       </c>
@@ -2261,7 +2279,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" ht="15.6" spans="1:17">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="41" t="s">
         <v>43</v>
       </c>
@@ -2284,7 +2302,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" ht="15.6" spans="1:17">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
@@ -2483,33 +2501,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.8796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.8818181818182" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.37962962962963" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.38181818181818" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="7" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="11" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="15" max="17" width="5.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="19" max="21" width="5.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="23" max="25" width="5.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:32">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2568,7 +2586,7 @@
       </c>
       <c r="AF1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="32.4" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2636,7 +2654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2677,7 +2695,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2725,7 +2743,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="32"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2785,7 +2803,7 @@
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2853,7 +2871,7 @@
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3027,7 +3045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3138,9 +3156,7 @@
       <c r="L10" s="21">
         <v>25</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="M10" s="21"/>
       <c r="N10" s="21">
         <v>0</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3228,7 +3244,7 @@
         <v>10</v>
       </c>
       <c r="N11" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O11" s="22">
         <v>18.5</v>
@@ -3279,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3361,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3447,7 +3463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3529,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3560,7 +3576,7 @@
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O15" s="22">
         <v>18</v>
@@ -3580,7 +3596,9 @@
       <c r="T15" s="27">
         <v>22</v>
       </c>
-      <c r="U15" s="27"/>
+      <c r="U15" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="V15" s="27">
         <v>0</v>
       </c>
@@ -3590,9 +3608,7 @@
       <c r="X15" s="21">
         <v>24</v>
       </c>
-      <c r="Y15" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y15" s="21"/>
       <c r="Z15" s="21">
         <v>1</v>
       </c>
@@ -3613,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:33">
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3659,7 +3675,7 @@
         <v>0.5</v>
       </c>
       <c r="S16" s="27">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="T16" s="27">
         <v>22</v>
@@ -3669,16 +3685,14 @@
         <v>0.5</v>
       </c>
       <c r="W16" s="21">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="X16" s="21">
         <v>24</v>
       </c>
-      <c r="Y16" s="21" t="s">
-        <v>10</v>
-      </c>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="16"/>
       <c r="AB16" s="31">
@@ -3696,11 +3710,8 @@
       <c r="AF16" s="32">
         <v>4</v>
       </c>
-      <c r="AG16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:32">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3746,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="27">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="T17" s="27">
         <v>22</v>
@@ -3756,14 +3767,14 @@
         <v>0</v>
       </c>
       <c r="W17" s="21">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="X17" s="21">
         <v>24</v>
       </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="16"/>
       <c r="AB17" s="31">
@@ -3782,12 +3793,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
@@ -3828,7 +3839,7 @@
         <v>0.5</v>
       </c>
       <c r="S18" s="27">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="T18" s="27">
         <v>22</v>
@@ -3840,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="21">
-        <v>21.5</v>
+        <v>20</v>
       </c>
       <c r="X18" s="21">
         <v>24</v>
@@ -3866,7 +3877,7 @@
       </c>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3880,7 +3891,9 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
       <c r="K19" s="21">
         <v>18</v>
       </c>
@@ -3904,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="27">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="T19" s="27">
         <v>22</v>
@@ -3916,7 +3929,7 @@
         <v>0.5</v>
       </c>
       <c r="W19" s="21">
-        <v>22</v>
+        <v>20.5</v>
       </c>
       <c r="X19" s="21">
         <v>24</v>
@@ -3942,7 +3955,7 @@
       </c>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -3951,14 +3964,16 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="13">
         <v>19.5</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
       <c r="K20" s="21">
         <v>19</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="27">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="T20" s="27">
         <v>22</v>
@@ -3996,7 +4011,7 @@
         <v>0.5</v>
       </c>
       <c r="W20" s="21">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="X20" s="21">
         <v>24</v>
@@ -4018,7 +4033,7 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4034,7 +4049,9 @@
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="K21" s="23">
         <v>20</v>
       </c>
@@ -4072,11 +4089,13 @@
         <v>99</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
+      <c r="Z21" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="AA21" s="16"/>
       <c r="AB21" s="31">
         <v>2</v>
@@ -4090,7 +4109,7 @@
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4099,14 +4118,14 @@
       </c>
       <c r="C22" s="12"/>
       <c r="E22" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="14">
         <v>18.5</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>8</v>
@@ -4115,10 +4134,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>8</v>
@@ -4127,7 +4146,7 @@
         <v>59</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P22" s="24" t="s">
         <v>97</v>
@@ -4139,21 +4158,23 @@
         <v>59</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T22" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U22" s="28"/>
       <c r="V22" s="28" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="W22" s="23" t="s">
         <v>107</v>
       </c>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
+      <c r="Z22" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="AA22" s="16"/>
       <c r="AB22" s="31">
         <v>1</v>
@@ -4169,7 +4190,7 @@
       </c>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4181,7 +4202,7 @@
         <v>108</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>8</v>
@@ -4193,7 +4214,7 @@
         <v>97</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>8</v>
@@ -4217,18 +4238,20 @@
         <v>98</v>
       </c>
       <c r="T23" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U23" s="28"/>
       <c r="V23" s="28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
+      <c r="Z23" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="AA23" s="16"/>
       <c r="AB23" s="31">
         <v>1</v>
@@ -4244,7 +4267,7 @@
       </c>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4258,10 +4281,10 @@
         <v>93</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>8</v>
@@ -4270,10 +4293,10 @@
         <v>59</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>8</v>
@@ -4282,7 +4305,7 @@
         <v>59</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P24" s="24" t="s">
         <v>97</v>
@@ -4294,24 +4317,24 @@
         <v>59</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U24" s="28"/>
       <c r="V24" s="28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="W24" s="23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X24" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AA24" s="16"/>
       <c r="AB24" s="31">
@@ -4330,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4340,10 +4363,10 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>8</v>
@@ -4352,10 +4375,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>8</v>
@@ -4371,29 +4394,29 @@
       </c>
       <c r="Q25" s="24"/>
       <c r="R25" s="24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S25" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="U25" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="W25" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="X25" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y25" s="23"/>
       <c r="Z25" s="23" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AA25" s="16"/>
       <c r="AB25" s="31">
@@ -4410,7 +4433,7 @@
       </c>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" ht="15.6" spans="1:32">
+    <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4420,10 +4443,10 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>8</v>
@@ -4432,48 +4455,46 @@
         <v>59</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M26" s="23"/>
       <c r="N26" s="23" t="s">
         <v>59</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>97</v>
       </c>
       <c r="Q26" s="24"/>
       <c r="R26" s="24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>10</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="U26" s="28"/>
       <c r="V26" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W26" s="23" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="X26" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y26" s="23" t="s">
         <v>10</v>
       </c>
       <c r="Z26" s="23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AA26" s="33"/>
       <c r="AB26" s="31">
@@ -4488,7 +4509,7 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
     </row>
-    <row r="27" ht="15.6" spans="1:32">
+    <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4498,10 +4519,10 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>8</v>
@@ -4510,17 +4531,17 @@
         <v>59</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P27" s="24" t="s">
         <v>97</v>
@@ -4529,27 +4550,25 @@
         <v>8</v>
       </c>
       <c r="R27" s="24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U27" s="28"/>
       <c r="V27" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X27" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y27" s="23" t="s">
-        <v>10</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Y27" s="23"/>
       <c r="Z27" s="23" t="s">
         <v>99</v>
       </c>
@@ -4568,42 +4587,42 @@
       </c>
       <c r="AF27" s="32"/>
     </row>
-    <row r="28" ht="15.6" spans="1:32">
+    <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
         <v>99</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O28" s="24" t="s">
         <v>97</v>
@@ -4616,26 +4635,26 @@
         <v>59</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="V28" s="28" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="W28" s="23" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="X28" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AA28" s="33"/>
       <c r="AB28" s="31">
@@ -4648,42 +4667,50 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
     </row>
-    <row r="29" ht="15.6" spans="1:32">
+    <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="14"/>
+      <c r="G29" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="K29" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O29" s="24"/>
+      <c r="O29" s="24" t="s">
+        <v>115</v>
+      </c>
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
+      <c r="R29" s="24" t="s">
+        <v>96</v>
+      </c>
       <c r="S29" s="28" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U29" s="28" t="s">
         <v>10</v>
@@ -4691,10 +4718,14 @@
       <c r="V29" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="W29" s="23"/>
+      <c r="W29" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
+      <c r="Z29" s="23" t="s">
+        <v>96</v>
+      </c>
       <c r="AA29" s="33"/>
       <c r="AB29" s="31"/>
       <c r="AC29" s="31"/>
@@ -4702,9 +4733,9 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
     </row>
-    <row r="30" ht="15.6" spans="1:32">
+    <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -4715,31 +4746,31 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
       <c r="Q30" s="24"/>
       <c r="R30" s="24" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
       <c r="U30" s="28"/>
       <c r="V30" s="28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
       <c r="Z30" s="23" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AA30" s="33"/>
       <c r="AB30" s="31"/>
@@ -4748,7 +4779,7 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
-    <row r="31" ht="15.6" spans="1:32">
+    <row r="31" ht="16.5" spans="1:32">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4782,9 +4813,9 @@
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
     </row>
-    <row r="32" ht="15.6" spans="1:32">
+    <row r="32" ht="16.5" spans="1:32">
       <c r="A32" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4818,9 +4849,9 @@
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
     </row>
-    <row r="33" ht="15.6" spans="1:32">
+    <row r="33" ht="16.5" spans="1:32">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4854,7 +4885,7 @@
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
     </row>
-    <row r="34" ht="15.6" spans="1:32">
+    <row r="34" ht="16.5" spans="1:32">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4888,7 +4919,7 @@
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
     </row>
-    <row r="35" ht="15.6" spans="1:32">
+    <row r="35" ht="16.5" spans="1:32">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4922,7 +4953,7 @@
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
     </row>
-    <row r="36" ht="15.6" spans="1:30">
+    <row r="36" ht="16.5" spans="1:30">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4954,7 +4985,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" ht="15.6" spans="1:30">
+    <row r="37" ht="16.5" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
